--- a/Civilworks cost/Analysis Template/analysis_dframe.xlsx
+++ b/Civilworks cost/Analysis Template/analysis_dframe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Analysis Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Analysis Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="analysis_list" sheetId="3" r:id="rId3"/>
     <sheet name="Analyzed_cost" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -657,18 +657,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -723,7 +724,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -752,7 +753,7 @@
         <v>33.027539150488508</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -781,7 +782,7 @@
         <v>4.5871582153456263E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -810,7 +811,7 @@
         <v>0.10062153504629109</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -839,7 +840,7 @@
         <v>0.15252840000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,7 +869,7 @@
         <v>7.6464000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -897,7 +898,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -926,7 +927,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -955,7 +956,7 @@
         <v>10.344799999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -984,7 +985,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>0.30909999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1244,6 +1245,9 @@
       <c r="I20" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1254,11 +1258,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1285,17 +1297,17 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1.4123000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.70809999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1305,17 +1317,17 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>14.1243</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1325,17 +1337,17 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>30.3951367781155</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1345,17 +1357,17 @@
       <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>16.863406408094431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1365,17 +1377,17 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2.8620000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.34940600978336828</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1385,17 +1397,17 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.186</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>5.376344086021505</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1405,17 +1417,17 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>28.901734104046241</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1425,17 +1437,17 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>8.72E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>11.467889908256881</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1445,17 +1457,17 @@
       <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>16.863406408094431</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1465,13 +1477,13 @@
       <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1.679389312977099E-5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>59545.454545454537</v>
       </c>
     </row>
@@ -1484,11 +1496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1514,119 +1528,119 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>60</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>60</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>60</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>60</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>3.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>60</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>60</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>2.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1639,19 +1653,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1706,7 +1720,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1735,7 +1749,7 @@
         <v>330.27539150488508</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1764,7 +1778,7 @@
         <v>48.165161261129079</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>654.03997780089242</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1822,7 +1836,7 @@
         <v>9.9143460000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1851,7 +1865,7 @@
         <v>3.0585599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1880,7 +1894,7 @@
         <v>4.0500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>9.310319999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>1.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1996,7 +2010,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2025,7 +2039,7 @@
         <v>4.8374999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2054,7 +2068,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2083,7 +2097,7 @@
         <v>148.36799999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2112,7 +2126,7 @@
         <v>12.462</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2141,7 +2155,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2170,7 +2184,7 @@
         <v>4.4180000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2199,7 +2213,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2228,7 +2242,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2249,7 +2263,7 @@
         <v>1258.137876566906</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2270,7 +2284,7 @@
         <v>31.453446914172659</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2291,7 +2305,7 @@
         <v>1289.5913234810789</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>128.95913234810789</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2333,7 +2347,7 @@
         <v>1418.5504558291871</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2354,7 +2368,7 @@
         <v>106.391284187189</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>

--- a/Civilworks cost/Analysis Template/analysis_dframe.xlsx
+++ b/Civilworks cost/Analysis Template/analysis_dframe.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Analysis Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="analysis_list" sheetId="3" r:id="rId3"/>
     <sheet name="Analyzed_cost" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
   <si>
     <t>codeno</t>
   </si>
@@ -46,6 +41,9 @@
   </si>
   <si>
     <t>40-210-03</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>10-040</t>
@@ -273,8 +271,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -322,35 +320,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -359,14 +335,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -413,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,10 +413,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +447,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,20 +622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,560 +654,617 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>9.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>0.96</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>0.96</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>0.96</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.4267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>23.826441118781531</v>
-      </c>
-      <c r="G3" s="2">
-        <v>25.023640500433409</v>
-      </c>
-      <c r="H3" s="2">
-        <v>27.682449430641061</v>
-      </c>
-      <c r="I3" s="2">
-        <v>33.027539150488508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>23.82644111878153</v>
+      </c>
+      <c r="G3">
+        <v>25.02364050043341</v>
+      </c>
+      <c r="H3">
+        <v>27.68244943064106</v>
+      </c>
+      <c r="I3">
+        <v>33.02753915048851</v>
+      </c>
+      <c r="J3">
+        <v>8.202207238708464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>1050</v>
       </c>
-      <c r="F4" s="2">
-        <v>4.9638418997461527E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6.0821348438553427E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4.8059808039307393E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4.5871582153456263E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.04963841899746153</v>
+      </c>
+      <c r="G4">
+        <v>0.06082134843855343</v>
+      </c>
+      <c r="H4">
+        <v>0.04805980803930739</v>
+      </c>
+      <c r="I4">
+        <v>0.04587158215345626</v>
+      </c>
+      <c r="J4">
+        <v>0.01423994312275775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>6500</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.10888427392991561</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9.5296121977457002E-2</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F5">
+        <v>0.1088842739299156</v>
+      </c>
+      <c r="G5">
+        <v>0.095296121977457</v>
+      </c>
+      <c r="H5">
         <v>0.1054215144088033</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.10062153504629109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0.1006215350462911</v>
+      </c>
+      <c r="J5">
+        <v>0.03123600426927506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>65</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.15252840000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.15252840000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.15252840000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.15252840000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.1525284</v>
+      </c>
+      <c r="G6">
+        <v>0.1525284</v>
+      </c>
+      <c r="H6">
+        <v>0.1525284</v>
+      </c>
+      <c r="I6">
+        <v>0.1525284</v>
+      </c>
+      <c r="J6">
+        <v>0.04519360000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>400</v>
       </c>
-      <c r="F7" s="2">
-        <v>7.6464000000000002E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7.6464000000000002E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7.6464000000000002E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>7.6464000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.0076464</v>
+      </c>
+      <c r="G7">
+        <v>0.0076464</v>
+      </c>
+      <c r="H7">
+        <v>0.0076464</v>
+      </c>
+      <c r="I7">
+        <v>0.0076464</v>
+      </c>
+      <c r="J7">
+        <v>0.0022656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>0.27</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>0.27</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>0.27</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>80</v>
       </c>
-      <c r="F9" s="2">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.0036</v>
+      </c>
+      <c r="G9">
+        <v>0.0036</v>
+      </c>
+      <c r="H9">
+        <v>0.0036</v>
+      </c>
+      <c r="I9">
+        <v>0.0036</v>
+      </c>
+      <c r="J9">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>60</v>
       </c>
-      <c r="F10" s="2">
-        <v>10.344799999999999</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10.344799999999999</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10.344799999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>10.344799999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>10.3448</v>
+      </c>
+      <c r="G10">
+        <v>10.3448</v>
+      </c>
+      <c r="H10">
+        <v>10.3448</v>
+      </c>
+      <c r="I10">
+        <v>10.3448</v>
+      </c>
+      <c r="J10">
+        <v>6.8965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>60</v>
       </c>
-      <c r="F11" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.0018</v>
+      </c>
+      <c r="G11">
+        <v>0.0018</v>
+      </c>
+      <c r="H11">
+        <v>0.0018</v>
+      </c>
+      <c r="I11">
+        <v>0.0018</v>
+      </c>
+      <c r="J11">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>600</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>0.54</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>0.54</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>0.54</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>2.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>129</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>129</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>129</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>1100</v>
       </c>
-      <c r="F14" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.0064</v>
+      </c>
+      <c r="G14">
+        <v>0.0064</v>
+      </c>
+      <c r="H14">
+        <v>0.0064</v>
+      </c>
+      <c r="I14">
+        <v>0.0064</v>
+      </c>
+      <c r="J14">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>480</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.30909999999999999</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.30909999999999999</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.30909999999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.30909999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.3091</v>
+      </c>
+      <c r="G15">
+        <v>0.3091</v>
+      </c>
+      <c r="H15">
+        <v>0.3091</v>
+      </c>
+      <c r="I15">
+        <v>0.3091</v>
+      </c>
+      <c r="J15">
+        <v>0.0916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>620</v>
       </c>
-      <c r="F16" s="2">
-        <v>2.01E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2.01E-2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2.01E-2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0.0201</v>
+      </c>
+      <c r="G16">
+        <v>0.0201</v>
+      </c>
+      <c r="H16">
+        <v>0.0201</v>
+      </c>
+      <c r="I16">
+        <v>0.0201</v>
+      </c>
+      <c r="J16">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>650</v>
       </c>
-      <c r="F17" s="2">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0.0037</v>
+      </c>
+      <c r="G17">
+        <v>0.0037</v>
+      </c>
+      <c r="H17">
+        <v>0.0037</v>
+      </c>
+      <c r="I17">
+        <v>0.0037</v>
+      </c>
+      <c r="J17">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>470</v>
       </c>
-      <c r="F18" s="2">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="I18" s="2">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.0094</v>
+      </c>
+      <c r="G18">
+        <v>0.0094</v>
+      </c>
+      <c r="H18">
+        <v>0.0094</v>
+      </c>
+      <c r="I18">
+        <v>0.0094</v>
+      </c>
+      <c r="J18">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>650</v>
       </c>
-      <c r="F19" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="G19" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="I19" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.0064</v>
+      </c>
+      <c r="G19">
+        <v>0.0064</v>
+      </c>
+      <c r="H19">
+        <v>0.0064</v>
+      </c>
+      <c r="I19">
+        <v>0.0064</v>
+      </c>
+      <c r="J19">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>620</v>
       </c>
-      <c r="F20" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
+      <c r="F20">
+        <v>0.0022</v>
+      </c>
+      <c r="G20">
+        <v>0.0022</v>
+      </c>
+      <c r="H20">
+        <v>0.0022</v>
+      </c>
+      <c r="I20">
+        <v>0.0022</v>
+      </c>
+      <c r="J20">
+        <v>0.0014</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,236 +1272,228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.4123000000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.70809999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>1.4123</v>
+      </c>
+      <c r="F2">
+        <v>0.7081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="F3" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>0.0708</v>
+      </c>
+      <c r="F3">
         <v>14.1243</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="F4" s="2">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>0.0329</v>
+      </c>
+      <c r="F4">
         <v>30.3951367781155</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>16.863406408094431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>0.0593</v>
+      </c>
+      <c r="F5">
+        <v>16.86340640809443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.8620000000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.34940600978336828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>2.862</v>
+      </c>
+      <c r="F6">
+        <v>0.3494060097833683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
         <v>0.186</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>5.376344086021505</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>28.901734104046241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>0.0346</v>
+      </c>
+      <c r="F8">
+        <v>28.90173410404624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8.72E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>11.467889908256881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>0.0872</v>
+      </c>
+      <c r="F9">
+        <v>11.46788990825688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>16.863406408094431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>0.0593</v>
+      </c>
+      <c r="F10">
+        <v>16.86340640809443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.679389312977099E-5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>59545.454545454537</v>
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>1.679389312977099E-05</v>
+      </c>
+      <c r="F11">
+        <v>59545.45454545454</v>
       </c>
     </row>
   </sheetData>
@@ -1493,155 +1502,182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>60</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>60</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>60</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>60</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>3.5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>60</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>2.5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>60</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>60</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
-        <v>7.4999999999999997E-2</v>
+      <c r="I5">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0.075</v>
       </c>
     </row>
   </sheetData>
@@ -1650,29 +1686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1690,703 +1718,777 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="3">
+        <v>46</v>
+      </c>
+      <c r="E2">
         <v>9.5</v>
       </c>
-      <c r="F2" s="3">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="G2" s="3">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="H2" s="3">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="I2" s="3">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="G2">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="H2">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="I2">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="J2">
+        <v>4.05365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3">
+        <v>47</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
-        <v>238.26441118781531</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3">
+        <v>238.2644111878153</v>
+      </c>
+      <c r="G3">
         <v>250.2364050043341</v>
       </c>
-      <c r="H3" s="3">
-        <v>276.82449430641049</v>
-      </c>
-      <c r="I3" s="3">
-        <v>330.27539150488508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>276.8244943064105</v>
+      </c>
+      <c r="I3">
+        <v>330.2753915048851</v>
+      </c>
+      <c r="J3">
+        <v>82.02207238708465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3">
+        <v>48</v>
+      </c>
+      <c r="E4">
         <v>1050</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>52.1203399473346</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>63.8624158604811</v>
       </c>
-      <c r="H4" s="3">
-        <v>50.462798441272753</v>
-      </c>
-      <c r="I4" s="3">
-        <v>48.165161261129079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>50.46279844127275</v>
+      </c>
+      <c r="I4">
+        <v>48.16516126112908</v>
+      </c>
+      <c r="J4">
+        <v>14.95194027889564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3">
+        <v>48</v>
+      </c>
+      <c r="E5">
         <v>6500</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>707.7477805444513</v>
       </c>
-      <c r="G5" s="3">
-        <v>619.42479285347054</v>
-      </c>
-      <c r="H5" s="3">
-        <v>685.23984365722151</v>
-      </c>
-      <c r="I5" s="3">
-        <v>654.03997780089242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>619.4247928534705</v>
+      </c>
+      <c r="H5">
+        <v>685.2398436572215</v>
+      </c>
+      <c r="I5">
+        <v>654.0399778008924</v>
+      </c>
+      <c r="J5">
+        <v>203.0340277502879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3">
+        <v>49</v>
+      </c>
+      <c r="E6">
         <v>65</v>
       </c>
-      <c r="F6" s="3">
-        <v>9.9143460000000001</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9.9143460000000001</v>
-      </c>
-      <c r="H6" s="3">
-        <v>9.9143460000000001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>9.9143460000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>9.914346</v>
+      </c>
+      <c r="G6">
+        <v>9.914346</v>
+      </c>
+      <c r="H6">
+        <v>9.914346</v>
+      </c>
+      <c r="I6">
+        <v>9.914346</v>
+      </c>
+      <c r="J6">
+        <v>2.937584000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3">
+        <v>49</v>
+      </c>
+      <c r="E7">
         <v>400</v>
       </c>
-      <c r="F7" s="3">
-        <v>3.0585599999999999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3.0585599999999999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3.0585599999999999</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3.0585599999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>3.05856</v>
+      </c>
+      <c r="G7">
+        <v>3.05856</v>
+      </c>
+      <c r="H7">
+        <v>3.05856</v>
+      </c>
+      <c r="I7">
+        <v>3.05856</v>
+      </c>
+      <c r="J7">
+        <v>0.9062400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8" s="3">
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4.0500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>4.050000000000001</v>
+      </c>
+      <c r="G8">
+        <v>4.050000000000001</v>
+      </c>
+      <c r="H8">
+        <v>4.050000000000001</v>
+      </c>
+      <c r="I8">
+        <v>4.050000000000001</v>
+      </c>
+      <c r="J8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3">
+        <v>51</v>
+      </c>
+      <c r="E9">
         <v>80</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.288</v>
+      </c>
+      <c r="G9">
+        <v>0.288</v>
+      </c>
+      <c r="H9">
+        <v>0.288</v>
+      </c>
+      <c r="I9">
+        <v>0.288</v>
+      </c>
+      <c r="J9">
+        <v>0.08800000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
+        <v>51</v>
+      </c>
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>9.310319999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>9.310319999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>9.310319999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>9.310319999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>6.206849999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
+        <v>51</v>
+      </c>
+      <c r="E11">
         <v>60</v>
       </c>
-      <c r="F11" s="3">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1.6199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.00162</v>
+      </c>
+      <c r="G11">
+        <v>0.00162</v>
+      </c>
+      <c r="H11">
+        <v>0.00162</v>
+      </c>
+      <c r="I11">
+        <v>0.00162</v>
+      </c>
+      <c r="J11">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
-        <v>4.8599999999999994</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4.8599999999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4.8599999999999994</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4.8599999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>4.859999999999999</v>
+      </c>
+      <c r="G12">
+        <v>4.859999999999999</v>
+      </c>
+      <c r="H12">
+        <v>4.859999999999999</v>
+      </c>
+      <c r="I12">
+        <v>4.859999999999999</v>
+      </c>
+      <c r="J12">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3">
+        <v>52</v>
+      </c>
+      <c r="E13">
         <v>2.5</v>
       </c>
-      <c r="F13" s="3">
-        <v>4.8374999999999986</v>
-      </c>
-      <c r="G13" s="3">
-        <v>4.8374999999999986</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4.8374999999999986</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4.8374999999999986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>4.837499999999999</v>
+      </c>
+      <c r="G13">
+        <v>4.837499999999999</v>
+      </c>
+      <c r="H13">
+        <v>4.837499999999999</v>
+      </c>
+      <c r="I13">
+        <v>4.837499999999999</v>
+      </c>
+      <c r="J13">
+        <v>3.225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3">
+        <v>53</v>
+      </c>
+      <c r="E14">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>7.04</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>7.04</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>7.04</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="3">
+        <v>53</v>
+      </c>
+      <c r="E15">
         <v>480</v>
       </c>
-      <c r="F15" s="3">
-        <v>148.36799999999999</v>
-      </c>
-      <c r="G15" s="3">
-        <v>148.36799999999999</v>
-      </c>
-      <c r="H15" s="3">
-        <v>148.36799999999999</v>
-      </c>
-      <c r="I15" s="3">
-        <v>148.36799999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>148.368</v>
+      </c>
+      <c r="G15">
+        <v>148.368</v>
+      </c>
+      <c r="H15">
+        <v>148.368</v>
+      </c>
+      <c r="I15">
+        <v>148.368</v>
+      </c>
+      <c r="J15">
+        <v>43.968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3">
+        <v>53</v>
+      </c>
+      <c r="E16">
         <v>620</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>12.462</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>12.462</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>12.462</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>12.462</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="3">
+        <v>53</v>
+      </c>
+      <c r="E17">
         <v>650</v>
       </c>
-      <c r="F17" s="3">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2.4049999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>2.405</v>
+      </c>
+      <c r="G17">
+        <v>2.405</v>
+      </c>
+      <c r="H17">
+        <v>2.405</v>
+      </c>
+      <c r="I17">
+        <v>2.405</v>
+      </c>
+      <c r="J17">
+        <v>0.7150000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="3">
+        <v>53</v>
+      </c>
+      <c r="E18">
         <v>470</v>
       </c>
-      <c r="F18" s="3">
-        <v>4.4180000000000001</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4.4180000000000001</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4.4180000000000001</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4.4180000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>4.418</v>
+      </c>
+      <c r="G18">
+        <v>4.418</v>
+      </c>
+      <c r="H18">
+        <v>4.418</v>
+      </c>
+      <c r="I18">
+        <v>4.418</v>
+      </c>
+      <c r="J18">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3">
+        <v>53</v>
+      </c>
+      <c r="E19">
         <v>650</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>4.16</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>4.16</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>4.16</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1.235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3">
+        <v>53</v>
+      </c>
+      <c r="E20">
         <v>620</v>
       </c>
-      <c r="F20" s="3">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1.3640000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1.364</v>
+      </c>
+      <c r="G20">
+        <v>1.364</v>
+      </c>
+      <c r="H20">
+        <v>1.364</v>
+      </c>
+      <c r="I20">
+        <v>1.364</v>
+      </c>
+      <c r="J20">
+        <v>0.868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
+        <v>76</v>
+      </c>
+      <c r="F21">
         <v>1223.789877679601</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>1159.180959718286</v>
       </c>
-      <c r="H21" s="3">
-        <v>1238.1844824049051</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21">
+        <v>1238.184482404905</v>
+      </c>
+      <c r="I21">
         <v>1258.137876566906</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>375.2984444162682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <v>30.594746941990032</v>
-      </c>
-      <c r="G22" s="3">
-        <v>28.979523992957141</v>
-      </c>
-      <c r="H22" s="3">
-        <v>30.954612060122621</v>
-      </c>
-      <c r="I22" s="3">
-        <v>31.453446914172659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>30.59474694199003</v>
+      </c>
+      <c r="G22">
+        <v>28.97952399295714</v>
+      </c>
+      <c r="H22">
+        <v>30.95461206012262</v>
+      </c>
+      <c r="I22">
+        <v>31.45344691417266</v>
+      </c>
+      <c r="J22">
+        <v>9.382461110406707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
+        <v>78</v>
+      </c>
+      <c r="F23">
         <v>1254.384624621591</v>
       </c>
-      <c r="G23" s="3">
-        <v>1188.1604837112429</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23">
+        <v>1188.160483711243</v>
+      </c>
+      <c r="H23">
         <v>1269.139094465027</v>
       </c>
-      <c r="I23" s="3">
-        <v>1289.5913234810789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1289.591323481079</v>
+      </c>
+      <c r="J23">
+        <v>384.680905526675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>125.43846246215909</v>
-      </c>
-      <c r="G24" s="3">
+        <v>79</v>
+      </c>
+      <c r="F24">
+        <v>125.4384624621591</v>
+      </c>
+      <c r="G24">
         <v>118.8160483711243</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>126.9139094465027</v>
       </c>
-      <c r="I24" s="3">
-        <v>128.95913234810789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>128.9591323481079</v>
+      </c>
+      <c r="J24">
+        <v>38.4680905526675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
-        <v>1379.8230870837499</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1306.9765320823669</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1396.0530039115299</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1418.5504558291871</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <v>1379.82308708375</v>
+      </c>
+      <c r="G25">
+        <v>1306.976532082367</v>
+      </c>
+      <c r="H25">
+        <v>1396.05300391153</v>
+      </c>
+      <c r="I25">
+        <v>1418.550455829187</v>
+      </c>
+      <c r="J25">
+        <v>423.1489960793425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <v>103.48673153128129</v>
-      </c>
-      <c r="G26" s="3">
-        <v>98.023239906177537</v>
-      </c>
-      <c r="H26" s="3">
-        <v>104.70397529336471</v>
-      </c>
-      <c r="I26" s="3">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>103.4867315312813</v>
+      </c>
+      <c r="G26">
+        <v>98.02323990617754</v>
+      </c>
+      <c r="H26">
+        <v>104.7039752933647</v>
+      </c>
+      <c r="I26">
         <v>106.391284187189</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>31.73617470595068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <v>1483.3098186150321</v>
-      </c>
-      <c r="G27" s="3">
+        <v>82</v>
+      </c>
+      <c r="F27">
+        <v>1483.309818615032</v>
+      </c>
+      <c r="G27">
         <v>1404.999771988545</v>
       </c>
-      <c r="H27" s="3">
-        <v>1500.7569792048951</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1524.9417400163759</v>
+      <c r="H27">
+        <v>1500.756979204895</v>
+      </c>
+      <c r="I27">
+        <v>1524.941740016376</v>
+      </c>
+      <c r="J27">
+        <v>454.8851707852932</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Analysis Template/analysis_dframe.xlsx
+++ b/Civilworks cost/Analysis Template/analysis_dframe.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Analysis Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="analysis_list" sheetId="3" r:id="rId3"/>
     <sheet name="Analyzed_cost" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -271,8 +276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,10 +329,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,6 +343,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -381,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +429,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,6 +464,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,14 +640,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="35.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,17 +683,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E2">
@@ -687,180 +712,212 @@
         <v>0.96</v>
       </c>
       <c r="J2">
-        <v>0.4267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.42670000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>23.82644111878153</v>
+        <v>23.826441118781531</v>
       </c>
       <c r="G3">
-        <v>25.02364050043341</v>
+        <v>25.023640500433409</v>
       </c>
       <c r="H3">
-        <v>27.68244943064106</v>
+        <v>27.682449430641061</v>
       </c>
       <c r="I3">
-        <v>33.02753915048851</v>
+        <v>33.027539150488508</v>
       </c>
       <c r="J3">
-        <v>8.202207238708464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>8.2022072387084641</v>
+      </c>
+      <c r="K3">
+        <f>J3*42000</f>
+        <v>344492.70402575552</v>
+      </c>
+      <c r="L3">
+        <f>K3/50</f>
+        <v>6889.8540805151106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E4">
         <v>1050</v>
       </c>
       <c r="F4">
-        <v>0.04963841899746153</v>
+        <v>4.9638418997461527E-2</v>
       </c>
       <c r="G4">
-        <v>0.06082134843855343</v>
+        <v>6.0821348438553427E-2</v>
       </c>
       <c r="H4">
-        <v>0.04805980803930739</v>
+        <v>4.8059808039307393E-2</v>
       </c>
       <c r="I4">
-        <v>0.04587158215345626</v>
+        <v>4.5871582153456263E-2</v>
       </c>
       <c r="J4">
-        <v>0.01423994312275775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1.423994312275775E-2</v>
+      </c>
+      <c r="K4">
+        <f>J4*42000</f>
+        <v>598.07761115582548</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="0">K4/50</f>
+        <v>11.961552223116509</v>
+      </c>
+      <c r="M4">
+        <f>K4/1.5</f>
+        <v>398.71840743721697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E5">
         <v>6500</v>
       </c>
       <c r="F5">
-        <v>0.1088842739299156</v>
+        <v>0.10888427392991561</v>
       </c>
       <c r="G5">
-        <v>0.095296121977457</v>
+        <v>9.5296121977457002E-2</v>
       </c>
       <c r="H5">
         <v>0.1054215144088033</v>
       </c>
       <c r="I5">
-        <v>0.1006215350462911</v>
+        <v>0.10062153504629109</v>
       </c>
       <c r="J5">
-        <v>0.03123600426927506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>3.1236004269275058E-2</v>
+      </c>
+      <c r="K5">
+        <f>J5*42000</f>
+        <v>1311.9121793095524</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>26.238243586191047</v>
+      </c>
+      <c r="M5">
+        <f>K5/1.5</f>
+        <v>874.60811953970153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E6">
         <v>65</v>
       </c>
       <c r="F6">
-        <v>0.1525284</v>
+        <v>0.15252840000000001</v>
       </c>
       <c r="G6">
-        <v>0.1525284</v>
+        <v>0.15252840000000001</v>
       </c>
       <c r="H6">
-        <v>0.1525284</v>
+        <v>0.15252840000000001</v>
       </c>
       <c r="I6">
-        <v>0.1525284</v>
+        <v>0.15252840000000001</v>
       </c>
       <c r="J6">
-        <v>0.04519360000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>4.5193600000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E7">
         <v>400</v>
       </c>
       <c r="F7">
-        <v>0.0076464</v>
+        <v>7.6464000000000002E-3</v>
       </c>
       <c r="G7">
-        <v>0.0076464</v>
+        <v>7.6464000000000002E-3</v>
       </c>
       <c r="H7">
-        <v>0.0076464</v>
+        <v>7.6464000000000002E-3</v>
       </c>
       <c r="I7">
-        <v>0.0076464</v>
+        <v>7.6464000000000002E-3</v>
       </c>
       <c r="J7">
-        <v>0.0022656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>2.2656E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E8">
@@ -882,113 +939,113 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E9">
         <v>80</v>
       </c>
       <c r="F9">
-        <v>0.0036</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G9">
-        <v>0.0036</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H9">
-        <v>0.0036</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I9">
-        <v>0.0036</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J9">
-        <v>0.0011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E10">
         <v>60</v>
       </c>
       <c r="F10">
-        <v>10.3448</v>
+        <v>10.344799999999999</v>
       </c>
       <c r="G10">
-        <v>10.3448</v>
+        <v>10.344799999999999</v>
       </c>
       <c r="H10">
-        <v>10.3448</v>
+        <v>10.344799999999999</v>
       </c>
       <c r="I10">
-        <v>10.3448</v>
+        <v>10.344799999999999</v>
       </c>
       <c r="J10">
-        <v>6.8965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>6.8964999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E11">
         <v>60</v>
       </c>
       <c r="F11">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G11">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H11">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I11">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="J11">
-        <v>0.0012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E12">
@@ -1010,17 +1067,17 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E13">
@@ -1042,228 +1099,228 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E14">
         <v>1100</v>
       </c>
       <c r="F14">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="G14">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H14">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="I14">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J14">
-        <v>0.0019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E15">
         <v>480</v>
       </c>
       <c r="F15">
-        <v>0.3091</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="G15">
-        <v>0.3091</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="H15">
-        <v>0.3091</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="I15">
-        <v>0.3091</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="J15">
-        <v>0.0916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>9.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E16">
         <v>620</v>
       </c>
       <c r="F16">
-        <v>0.0201</v>
+        <v>2.01E-2</v>
       </c>
       <c r="G16">
-        <v>0.0201</v>
+        <v>2.01E-2</v>
       </c>
       <c r="H16">
-        <v>0.0201</v>
+        <v>2.01E-2</v>
       </c>
       <c r="I16">
-        <v>0.0201</v>
+        <v>2.01E-2</v>
       </c>
       <c r="J16">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E17">
         <v>650</v>
       </c>
       <c r="F17">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="G17">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="H17">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="I17">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="J17">
-        <v>0.0011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E18">
         <v>470</v>
       </c>
       <c r="F18">
-        <v>0.0094</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="G18">
-        <v>0.0094</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="H18">
-        <v>0.0094</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I18">
-        <v>0.0094</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="J18">
-        <v>0.0028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E19">
         <v>650</v>
       </c>
       <c r="F19">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="G19">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H19">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="I19">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J19">
-        <v>0.0019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E20">
         <v>620</v>
       </c>
       <c r="F20">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G20">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="H20">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I20">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J20">
-        <v>0.0014</v>
+        <v>1.4E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1272,14 +1329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1310,13 +1367,13 @@
         <v>64</v>
       </c>
       <c r="E2">
-        <v>1.4123</v>
+        <v>1.4123000000000001</v>
       </c>
       <c r="F2">
-        <v>0.7081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.70809999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1330,13 +1387,13 @@
         <v>64</v>
       </c>
       <c r="E3">
-        <v>0.0708</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="F3">
         <v>14.1243</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1350,13 +1407,13 @@
         <v>65</v>
       </c>
       <c r="E4">
-        <v>0.0329</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="F4">
         <v>30.3951367781155</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1370,13 +1427,13 @@
         <v>66</v>
       </c>
       <c r="E5">
-        <v>0.0593</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F5">
-        <v>16.86340640809443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>16.863406408094431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1390,13 +1447,13 @@
         <v>66</v>
       </c>
       <c r="E6">
-        <v>2.862</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="F6">
-        <v>0.3494060097833683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.34940600978336828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1416,7 +1473,7 @@
         <v>5.376344086021505</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1430,13 +1487,13 @@
         <v>66</v>
       </c>
       <c r="E8">
-        <v>0.0346</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>28.90173410404624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>28.901734104046241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1450,13 +1507,13 @@
         <v>66</v>
       </c>
       <c r="E9">
-        <v>0.0872</v>
+        <v>8.72E-2</v>
       </c>
       <c r="F9">
-        <v>11.46788990825688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>11.467889908256881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1470,13 +1527,13 @@
         <v>66</v>
       </c>
       <c r="E10">
-        <v>0.0593</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>16.86340640809443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>16.863406408094431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1490,10 +1547,10 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>1.679389312977099E-05</v>
+        <v>1.679389312977099E-5</v>
       </c>
       <c r="F11">
-        <v>59545.45454545454</v>
+        <v>59545.454545454537</v>
       </c>
     </row>
   </sheetData>
@@ -1502,14 +1559,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1535,7 +1594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1561,10 +1620,10 @@
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1590,10 +1649,10 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1619,10 +1678,10 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1648,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1677,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1686,14 +1745,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1739,22 +1800,22 @@
         <v>9.5</v>
       </c>
       <c r="F2">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="G2">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H2">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I2">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="J2">
-        <v>4.05365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>4.0536500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1771,22 +1832,22 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>238.2644111878153</v>
+        <v>238.26441118781531</v>
       </c>
       <c r="G3">
         <v>250.2364050043341</v>
       </c>
       <c r="H3">
-        <v>276.8244943064105</v>
+        <v>276.82449430641049</v>
       </c>
       <c r="I3">
-        <v>330.2753915048851</v>
+        <v>330.27539150488508</v>
       </c>
       <c r="J3">
-        <v>82.02207238708465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>82.022072387084648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1809,16 +1870,16 @@
         <v>63.8624158604811</v>
       </c>
       <c r="H4">
-        <v>50.46279844127275</v>
+        <v>50.462798441272753</v>
       </c>
       <c r="I4">
-        <v>48.16516126112908</v>
+        <v>48.165161261129079</v>
       </c>
       <c r="J4">
-        <v>14.95194027889564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>14.951940278895639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1838,19 +1899,19 @@
         <v>707.7477805444513</v>
       </c>
       <c r="G5">
-        <v>619.4247928534705</v>
+        <v>619.42479285347054</v>
       </c>
       <c r="H5">
-        <v>685.2398436572215</v>
+        <v>685.23984365722151</v>
       </c>
       <c r="I5">
-        <v>654.0399778008924</v>
+        <v>654.03997780089242</v>
       </c>
       <c r="J5">
-        <v>203.0340277502879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>203.03402775028789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1867,22 +1928,22 @@
         <v>65</v>
       </c>
       <c r="F6">
-        <v>9.914346</v>
+        <v>9.9143460000000001</v>
       </c>
       <c r="G6">
-        <v>9.914346</v>
+        <v>9.9143460000000001</v>
       </c>
       <c r="H6">
-        <v>9.914346</v>
+        <v>9.9143460000000001</v>
       </c>
       <c r="I6">
-        <v>9.914346</v>
+        <v>9.9143460000000001</v>
       </c>
       <c r="J6">
-        <v>2.937584000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>2.9375840000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1899,22 +1960,22 @@
         <v>400</v>
       </c>
       <c r="F7">
-        <v>3.05856</v>
+        <v>3.0585599999999999</v>
       </c>
       <c r="G7">
-        <v>3.05856</v>
+        <v>3.0585599999999999</v>
       </c>
       <c r="H7">
-        <v>3.05856</v>
+        <v>3.0585599999999999</v>
       </c>
       <c r="I7">
-        <v>3.05856</v>
+        <v>3.0585599999999999</v>
       </c>
       <c r="J7">
-        <v>0.9062400000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.90624000000000016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1931,22 +1992,22 @@
         <v>15</v>
       </c>
       <c r="F8">
-        <v>4.050000000000001</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="G8">
-        <v>4.050000000000001</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="H8">
-        <v>4.050000000000001</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="I8">
-        <v>4.050000000000001</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="J8">
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1963,22 +2024,22 @@
         <v>80</v>
       </c>
       <c r="F9">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="G9">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H9">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I9">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="J9">
-        <v>0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2007,10 +2068,10 @@
         <v>9.310319999999999</v>
       </c>
       <c r="J10">
-        <v>6.206849999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>6.2068499999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2027,22 +2088,22 @@
         <v>60</v>
       </c>
       <c r="F11">
-        <v>0.00162</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="G11">
-        <v>0.00162</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="H11">
-        <v>0.00162</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="I11">
-        <v>0.00162</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="J11">
-        <v>0.00108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2059,22 +2120,22 @@
         <v>600</v>
       </c>
       <c r="F12">
-        <v>4.859999999999999</v>
+        <v>4.8599999999999994</v>
       </c>
       <c r="G12">
-        <v>4.859999999999999</v>
+        <v>4.8599999999999994</v>
       </c>
       <c r="H12">
-        <v>4.859999999999999</v>
+        <v>4.8599999999999994</v>
       </c>
       <c r="I12">
-        <v>4.859999999999999</v>
+        <v>4.8599999999999994</v>
       </c>
       <c r="J12">
         <v>2.16</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2091,22 +2152,22 @@
         <v>2.5</v>
       </c>
       <c r="F13">
-        <v>4.837499999999999</v>
+        <v>4.8374999999999986</v>
       </c>
       <c r="G13">
-        <v>4.837499999999999</v>
+        <v>4.8374999999999986</v>
       </c>
       <c r="H13">
-        <v>4.837499999999999</v>
+        <v>4.8374999999999986</v>
       </c>
       <c r="I13">
-        <v>4.837499999999999</v>
+        <v>4.8374999999999986</v>
       </c>
       <c r="J13">
-        <v>3.225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>3.2250000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2138,7 +2199,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2155,22 +2216,22 @@
         <v>480</v>
       </c>
       <c r="F15">
-        <v>148.368</v>
+        <v>148.36799999999999</v>
       </c>
       <c r="G15">
-        <v>148.368</v>
+        <v>148.36799999999999</v>
       </c>
       <c r="H15">
-        <v>148.368</v>
+        <v>148.36799999999999</v>
       </c>
       <c r="I15">
-        <v>148.368</v>
+        <v>148.36799999999999</v>
       </c>
       <c r="J15">
-        <v>43.968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>43.968000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2202,7 +2263,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2219,22 +2280,22 @@
         <v>650</v>
       </c>
       <c r="F17">
-        <v>2.405</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="G17">
-        <v>2.405</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="H17">
-        <v>2.405</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="I17">
-        <v>2.405</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="J17">
-        <v>0.7150000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.71500000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2251,22 +2312,22 @@
         <v>470</v>
       </c>
       <c r="F18">
-        <v>4.418</v>
+        <v>4.4180000000000001</v>
       </c>
       <c r="G18">
-        <v>4.418</v>
+        <v>4.4180000000000001</v>
       </c>
       <c r="H18">
-        <v>4.418</v>
+        <v>4.4180000000000001</v>
       </c>
       <c r="I18">
-        <v>4.418</v>
+        <v>4.4180000000000001</v>
       </c>
       <c r="J18">
-        <v>1.316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2295,10 +2356,10 @@
         <v>4.16</v>
       </c>
       <c r="J19">
-        <v>1.235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2315,22 +2376,22 @@
         <v>620</v>
       </c>
       <c r="F20">
-        <v>1.364</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="G20">
-        <v>1.364</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="H20">
-        <v>1.364</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="I20">
-        <v>1.364</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="J20">
-        <v>0.868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2344,16 +2405,16 @@
         <v>1159.180959718286</v>
       </c>
       <c r="H21">
-        <v>1238.184482404905</v>
+        <v>1238.1844824049051</v>
       </c>
       <c r="I21">
         <v>1258.137876566906</v>
       </c>
       <c r="J21">
-        <v>375.2984444162682</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>375.29844441626818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2361,22 +2422,22 @@
         <v>77</v>
       </c>
       <c r="F22">
-        <v>30.59474694199003</v>
+        <v>30.594746941990032</v>
       </c>
       <c r="G22">
-        <v>28.97952399295714</v>
+        <v>28.979523992957141</v>
       </c>
       <c r="H22">
-        <v>30.95461206012262</v>
+        <v>30.954612060122621</v>
       </c>
       <c r="I22">
-        <v>31.45344691417266</v>
+        <v>31.453446914172659</v>
       </c>
       <c r="J22">
         <v>9.382461110406707</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2387,19 +2448,19 @@
         <v>1254.384624621591</v>
       </c>
       <c r="G23">
-        <v>1188.160483711243</v>
+        <v>1188.1604837112429</v>
       </c>
       <c r="H23">
         <v>1269.139094465027</v>
       </c>
       <c r="I23">
-        <v>1289.591323481079</v>
+        <v>1289.5913234810789</v>
       </c>
       <c r="J23">
-        <v>384.680905526675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>384.68090552667502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2407,7 +2468,7 @@
         <v>79</v>
       </c>
       <c r="F24">
-        <v>125.4384624621591</v>
+        <v>125.43846246215909</v>
       </c>
       <c r="G24">
         <v>118.8160483711243</v>
@@ -2416,13 +2477,13 @@
         <v>126.9139094465027</v>
       </c>
       <c r="I24">
-        <v>128.9591323481079</v>
+        <v>128.95913234810789</v>
       </c>
       <c r="J24">
-        <v>38.4680905526675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>38.468090552667498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2430,22 +2491,22 @@
         <v>80</v>
       </c>
       <c r="F25">
-        <v>1379.82308708375</v>
+        <v>1379.8230870837499</v>
       </c>
       <c r="G25">
-        <v>1306.976532082367</v>
+        <v>1306.9765320823669</v>
       </c>
       <c r="H25">
-        <v>1396.05300391153</v>
+        <v>1396.0530039115299</v>
       </c>
       <c r="I25">
-        <v>1418.550455829187</v>
+        <v>1418.5504558291871</v>
       </c>
       <c r="J25">
-        <v>423.1489960793425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>423.14899607934251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2453,22 +2514,22 @@
         <v>81</v>
       </c>
       <c r="F26">
-        <v>103.4867315312813</v>
+        <v>103.48673153128129</v>
       </c>
       <c r="G26">
-        <v>98.02323990617754</v>
+        <v>98.023239906177537</v>
       </c>
       <c r="H26">
-        <v>104.7039752933647</v>
+        <v>104.70397529336471</v>
       </c>
       <c r="I26">
         <v>106.391284187189</v>
       </c>
       <c r="J26">
-        <v>31.73617470595068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>31.736174705950681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2476,19 +2537,19 @@
         <v>82</v>
       </c>
       <c r="F27">
-        <v>1483.309818615032</v>
+        <v>1483.3098186150321</v>
       </c>
       <c r="G27">
         <v>1404.999771988545</v>
       </c>
       <c r="H27">
-        <v>1500.756979204895</v>
+        <v>1500.7569792048951</v>
       </c>
       <c r="I27">
-        <v>1524.941740016376</v>
+        <v>1524.9417400163759</v>
       </c>
       <c r="J27">
-        <v>454.8851707852932</v>
+        <v>454.88517078529321</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Analysis Template/analysis_dframe.xlsx
+++ b/Civilworks cost/Analysis Template/analysis_dframe.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
   <si>
     <t>codeno</t>
   </si>
@@ -48,7 +48,10 @@
     <t>40-210-03</t>
   </si>
   <si>
-    <t>test</t>
+    <t>size2</t>
+  </si>
+  <si>
+    <t>size1</t>
   </si>
   <si>
     <t>10-040</t>
@@ -271,6 +274,12 @@
   </si>
   <si>
     <t>Item Grand Total</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>Stone Chips</t>
   </si>
 </sst>
 </file>
@@ -329,13 +338,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,20 +647,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="35.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,19 +687,22 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
       </c>
       <c r="E2">
         <v>9.5</v>
@@ -714,19 +722,31 @@
       <c r="J2">
         <v>0.42670000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0.48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -747,26 +767,44 @@
         <v>8.2022072387084641</v>
       </c>
       <c r="K3">
-        <f>J3*42000</f>
-        <v>344492.70402575552</v>
-      </c>
-      <c r="L3">
-        <f>K3/50</f>
-        <v>6889.8540805151106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.9206123576602643</v>
+      </c>
+      <c r="M3">
+        <f>39933/16</f>
+        <v>2495.8125</v>
+      </c>
+      <c r="N3">
+        <v>3000</v>
+      </c>
+      <c r="O3">
+        <f>2500*K3</f>
+        <v>17301.530894150659</v>
+      </c>
+      <c r="P3">
+        <f>O3/50</f>
+        <v>346.03061788301318</v>
+      </c>
+      <c r="Q3">
+        <f>N3*K4</f>
+        <v>36.044856029480549</v>
+      </c>
+      <c r="R3">
+        <f>N3*K5</f>
+        <v>79.066135806602489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
       </c>
       <c r="E4">
         <v>1050</v>
@@ -787,30 +825,44 @@
         <v>1.423994312275775E-2</v>
       </c>
       <c r="K4">
-        <f>J4*42000</f>
-        <v>598.07761115582548</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L5" si="0">K4/50</f>
-        <v>11.961552223116509</v>
+        <v>1.201495200982685E-2</v>
       </c>
       <c r="M4">
-        <f>K4/1.5</f>
-        <v>398.71840743721697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <f>8701/16</f>
+        <v>543.8125</v>
+      </c>
+      <c r="N4">
+        <v>550</v>
+      </c>
+      <c r="O4">
+        <f>550*J3</f>
+        <v>4511.2139812896548</v>
+      </c>
+      <c r="P4">
+        <f>O4/50</f>
+        <v>90.224279625793102</v>
+      </c>
+      <c r="Q4">
+        <f>N4*J4</f>
+        <v>7.8319687175167623</v>
+      </c>
+      <c r="R4">
+        <f>N4*J5</f>
+        <v>17.179802348101283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
       </c>
       <c r="E5">
         <v>6500</v>
@@ -831,30 +883,21 @@
         <v>3.1236004269275058E-2</v>
       </c>
       <c r="K5">
-        <f>J5*42000</f>
-        <v>1311.9121793095524</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>26.238243586191047</v>
-      </c>
-      <c r="M5">
-        <f>K5/1.5</f>
-        <v>874.60811953970153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.635537860220083E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
       </c>
       <c r="E6">
         <v>65</v>
@@ -874,19 +917,22 @@
       <c r="J6">
         <v>4.5193600000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>3.8132100000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -906,19 +952,22 @@
       <c r="J7">
         <v>2.2656E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1.9116000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -938,19 +987,22 @@
       <c r="J8">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -970,19 +1022,22 @@
       <c r="J9">
         <v>1.1000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -1002,19 +1057,22 @@
       <c r="J10">
         <v>6.8964999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>8.0458999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -1034,19 +1092,22 @@
       <c r="J11">
         <v>1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
       </c>
       <c r="E12">
         <v>600</v>
@@ -1066,19 +1127,22 @@
       <c r="J12">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -1098,19 +1162,22 @@
       <c r="J13">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
       </c>
       <c r="E14">
         <v>1100</v>
@@ -1130,19 +1197,22 @@
       <c r="J14">
         <v>1.9E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
       </c>
       <c r="E15">
         <v>480</v>
@@ -1162,19 +1232,22 @@
       <c r="J15">
         <v>9.1600000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>7.7299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
       </c>
       <c r="E16">
         <v>620</v>
@@ -1194,19 +1267,22 @@
       <c r="J16">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
       </c>
       <c r="E17">
         <v>650</v>
@@ -1226,19 +1302,22 @@
       <c r="J17">
         <v>1.1000000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
       </c>
       <c r="E18">
         <v>470</v>
@@ -1258,19 +1337,22 @@
       <c r="J18">
         <v>2.8E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
       </c>
       <c r="E19">
         <v>650</v>
@@ -1290,19 +1372,22 @@
       <c r="J19">
         <v>1.9E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
       </c>
       <c r="E20">
         <v>620</v>
@@ -1321,6 +1406,9 @@
       </c>
       <c r="J20">
         <v>1.4E-3</v>
+      </c>
+      <c r="K20">
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1338,19 +1426,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>1.4123000000000001</v>
@@ -1378,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>7.0800000000000002E-2</v>
@@ -1398,13 +1486,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>3.2899999999999999E-2</v>
@@ -1418,13 +1506,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>5.9299999999999999E-2</v>
@@ -1438,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>2.8620000000000001</v>
@@ -1458,13 +1546,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>0.186</v>
@@ -1478,13 +1566,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>3.4599999999999999E-2</v>
@@ -1498,13 +1586,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>8.72E-2</v>
@@ -1518,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>5.9299999999999999E-2</v>
@@ -1538,13 +1626,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>1.679389312977099E-5</v>
@@ -1560,38 +1648,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1736,6 +1822,35 @@
         <v>5</v>
       </c>
       <c r="I6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1746,15 +1861,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,19 +1895,22 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>9.5</v>
@@ -1814,19 +1930,22 @@
       <c r="J2">
         <v>4.0536500000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1846,19 +1965,22 @@
       <c r="J3">
         <v>82.022072387084648</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>69.206123576602636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>1050</v>
@@ -1878,19 +2000,22 @@
       <c r="J4">
         <v>14.951940278895639</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>12.61569961031819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>6500</v>
@@ -1910,19 +2035,22 @@
       <c r="J5">
         <v>203.03402775028789</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>171.30996091430541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>65</v>
@@ -1942,19 +2070,22 @@
       <c r="J6">
         <v>2.9375840000000011</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>2.4785865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -1974,19 +2105,22 @@
       <c r="J7">
         <v>0.90624000000000016</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0.76463999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -2006,19 +2140,22 @@
       <c r="J8">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>2.0249999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -2038,19 +2175,22 @@
       <c r="J9">
         <v>8.8000000000000009E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -2070,19 +2210,22 @@
       <c r="J10">
         <v>6.2068499999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>7.2413099999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -2102,19 +2245,22 @@
       <c r="J11">
         <v>1.08E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>600</v>
@@ -2134,19 +2280,22 @@
       <c r="J12">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -2166,19 +2315,22 @@
       <c r="J13">
         <v>3.2250000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>1100</v>
@@ -2198,19 +2350,22 @@
       <c r="J14">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>480</v>
@@ -2230,19 +2385,22 @@
       <c r="J15">
         <v>43.968000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>37.103999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>620</v>
@@ -2262,19 +2420,22 @@
       <c r="J16">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>650</v>
@@ -2294,19 +2455,22 @@
       <c r="J17">
         <v>0.71500000000000008</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>470</v>
@@ -2326,19 +2490,22 @@
       <c r="J18">
         <v>1.3160000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>650</v>
@@ -2358,19 +2525,22 @@
       <c r="J19">
         <v>1.2350000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>620</v>
@@ -2390,13 +2560,16 @@
       <c r="J20">
         <v>0.86799999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21">
         <v>1223.789877679601</v>
@@ -2413,13 +2586,16 @@
       <c r="J21">
         <v>375.29844441626818</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>323.03558060122612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22">
         <v>30.594746941990032</v>
@@ -2436,13 +2612,16 @@
       <c r="J22">
         <v>9.382461110406707</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>8.0758895150306529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23">
         <v>1254.384624621591</v>
@@ -2459,13 +2638,16 @@
       <c r="J23">
         <v>384.68090552667502</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>331.11147011625678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24">
         <v>125.43846246215909</v>
@@ -2482,13 +2664,16 @@
       <c r="J24">
         <v>38.468090552667498</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>33.111147011625683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25">
         <v>1379.8230870837499</v>
@@ -2505,13 +2690,16 @@
       <c r="J25">
         <v>423.14899607934251</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>364.22261712788247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26">
         <v>103.48673153128129</v>
@@ -2528,13 +2716,16 @@
       <c r="J26">
         <v>31.736174705950681</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>27.316696284591181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27">
         <v>1483.3098186150321</v>
@@ -2550,6 +2741,9 @@
       </c>
       <c r="J27">
         <v>454.88517078529321</v>
+      </c>
+      <c r="K27">
+        <v>391.53931341247358</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Analysis Template/analysis_dframe.xlsx
+++ b/Civilworks cost/Analysis Template/analysis_dframe.xlsx
@@ -17,12 +17,15 @@
     <sheet name="analysis_list" sheetId="3" r:id="rId3"/>
     <sheet name="Analyzed_cost" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>codeno</t>
   </si>
@@ -54,6 +57,18 @@
     <t>size1</t>
   </si>
   <si>
+    <t>Fuse Block1</t>
+  </si>
+  <si>
+    <t>Fuse Block2</t>
+  </si>
+  <si>
+    <t>Fuse Block3</t>
+  </si>
+  <si>
+    <t>Fuse Block4</t>
+  </si>
+  <si>
     <t>10-040</t>
   </si>
   <si>
@@ -276,17 +291,23 @@
     <t>Item Grand Total</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
     <t>cement</t>
   </si>
   <si>
-    <t>Stone Chips</t>
+    <t>stone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +322,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,10 +365,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,6 +391,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Resource_List"/>
+      <sheetName val="Allocation"/>
+      <sheetName val="Main"/>
+      <sheetName val="TYPE_A_281_M"/>
+      <sheetName val="TYPE_A_40M"/>
+      <sheetName val="FF_30M_at_KM_1"/>
+      <sheetName val="FF_30M_at_KM_1_Backup"/>
+      <sheetName val="FF_30M_at_KM_1_Backup (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,19 +709,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,19 +754,31 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>9.5</v>
@@ -725,28 +801,31 @@
       <c r="K2">
         <v>0.48</v>
       </c>
-      <c r="P2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.8</v>
+      </c>
+      <c r="N2">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="O2">
+        <v>0.42670000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -769,42 +848,31 @@
       <c r="K3">
         <v>6.9206123576602643</v>
       </c>
+      <c r="L3">
+        <v>32.039872026204932</v>
+      </c>
       <c r="M3">
-        <f>39933/16</f>
-        <v>2495.8125</v>
+        <v>19.223923215722959</v>
       </c>
       <c r="N3">
-        <v>3000</v>
+        <v>16.404414477416928</v>
       </c>
       <c r="O3">
-        <f>2500*K3</f>
-        <v>17301.530894150659</v>
-      </c>
-      <c r="P3">
-        <f>O3/50</f>
-        <v>346.03061788301318</v>
-      </c>
-      <c r="Q3">
-        <f>N3*K4</f>
-        <v>36.044856029480549</v>
-      </c>
-      <c r="R3">
-        <f>N3*K5</f>
-        <v>79.066135806602489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8.2022072387084641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>1050</v>
@@ -827,42 +895,31 @@
       <c r="K4">
         <v>1.201495200982685E-2</v>
       </c>
+      <c r="L4">
+        <v>5.562477782327245E-2</v>
+      </c>
       <c r="M4">
-        <f>8701/16</f>
-        <v>543.8125</v>
+        <v>3.3374866693963459E-2</v>
       </c>
       <c r="N4">
-        <v>550</v>
+        <v>2.84798862455155E-2</v>
       </c>
       <c r="O4">
-        <f>550*J3</f>
-        <v>4511.2139812896548</v>
-      </c>
-      <c r="P4">
-        <f>O4/50</f>
-        <v>90.224279625793102</v>
-      </c>
-      <c r="Q4">
-        <f>N4*J4</f>
-        <v>7.8319687175167623</v>
-      </c>
-      <c r="R4">
-        <f>N4*J5</f>
-        <v>17.179802348101283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.423994312275775E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>6500</v>
@@ -885,19 +942,31 @@
       <c r="K5">
         <v>2.635537860220083E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>0.1220156416768557</v>
+      </c>
+      <c r="M5">
+        <v>7.3209385006113403E-2</v>
+      </c>
+      <c r="N5">
+        <v>6.2472008538550117E-2</v>
+      </c>
+      <c r="O5">
+        <v>3.1236004269275058E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>65</v>
@@ -920,19 +989,31 @@
       <c r="K6">
         <v>3.8132100000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0.17653750000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.1059225</v>
+      </c>
+      <c r="N6">
+        <v>9.0387200000000029E-2</v>
+      </c>
+      <c r="O6">
+        <v>4.5193600000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -955,19 +1036,31 @@
       <c r="K7">
         <v>1.9116000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="M7">
+        <v>5.3099999999999996E-3</v>
+      </c>
+      <c r="N7">
+        <v>4.5312000000000009E-3</v>
+      </c>
+      <c r="O7">
+        <v>2.2656E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -990,19 +1083,31 @@
       <c r="K8">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0.375</v>
+      </c>
+      <c r="M8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.24</v>
+      </c>
+      <c r="O8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1025,19 +1130,31 @@
       <c r="K9">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N9">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -1060,19 +1177,31 @@
       <c r="K10">
         <v>8.0458999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>13.4099</v>
+      </c>
+      <c r="M10">
+        <v>9.5785</v>
+      </c>
+      <c r="N10">
+        <v>10.7279</v>
+      </c>
+      <c r="O10">
+        <v>6.8964999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -1095,19 +1224,31 @@
       <c r="K11">
         <v>1.4E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N11">
+        <v>1.8E-3</v>
+      </c>
+      <c r="O11">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>600</v>
@@ -1130,19 +1271,31 @@
       <c r="K12">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.48</v>
+      </c>
+      <c r="N12">
+        <v>0.64</v>
+      </c>
+      <c r="O12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -1165,19 +1318,31 @@
       <c r="K13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>168</v>
+      </c>
+      <c r="M13">
+        <v>120</v>
+      </c>
+      <c r="N13">
+        <v>134</v>
+      </c>
+      <c r="O13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>1100</v>
@@ -1200,19 +1365,31 @@
       <c r="K14">
         <v>1.6000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="M14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N14">
+        <v>3.8E-3</v>
+      </c>
+      <c r="O14">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>480</v>
@@ -1235,19 +1412,31 @@
       <c r="K15">
         <v>7.7299999999999994E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.1832</v>
+      </c>
+      <c r="O15">
+        <v>9.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>620</v>
@@ -1270,19 +1459,31 @@
       <c r="K16">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>650</v>
@@ -1305,19 +1506,31 @@
       <c r="K17">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M17">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="N17">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="O17">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>470</v>
@@ -1340,19 +1553,31 @@
       <c r="K18">
         <v>2.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1.09E-2</v>
+      </c>
+      <c r="M18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="N18">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="O18">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>650</v>
@@ -1375,19 +1600,31 @@
       <c r="K19">
         <v>1.6000000000000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="M19">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N19">
+        <v>3.8E-3</v>
+      </c>
+      <c r="O19">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>620</v>
@@ -1409,6 +1646,102 @@
       </c>
       <c r="K20">
         <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L20">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M20">
+        <v>2E-3</v>
+      </c>
+      <c r="N20">
+        <v>2.3E-3</v>
+      </c>
+      <c r="O20">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="2">
+        <v>167</v>
+      </c>
+      <c r="M22" s="2">
+        <v>300</v>
+      </c>
+      <c r="N22" s="2">
+        <v>229</v>
+      </c>
+      <c r="O22" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="3">
+        <f>L22*L3/50</f>
+        <v>107.01317256752446</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" ref="M23:O23" si="0">M22*M3/50</f>
+        <v>115.34353929433775</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="0"/>
+        <v>75.132218306569527</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="0"/>
+        <v>26.247063163867086</v>
+      </c>
+      <c r="P23" s="3">
+        <f>SUM(L23:O23)</f>
+        <v>323.73599333229885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="3">
+        <f>L22*L4</f>
+        <v>9.289337896486499</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" ref="M24:O24" si="1">M22*M4</f>
+        <v>10.012460008189038</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5218939502230491</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2783908996412401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="3">
+        <f>L5*L22</f>
+        <v>20.376612160034902</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25:O25" si="2">M5*M22</f>
+        <v>21.962815501834022</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="2"/>
+        <v>14.306089955327977</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9977606830840093</v>
       </c>
     </row>
   </sheetData>
@@ -1426,19 +1759,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>1.4123000000000001</v>
@@ -1466,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>7.0800000000000002E-2</v>
@@ -1486,13 +1819,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>3.2899999999999999E-2</v>
@@ -1506,13 +1839,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>5.9299999999999999E-2</v>
@@ -1526,13 +1859,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>2.8620000000000001</v>
@@ -1546,13 +1879,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>0.186</v>
@@ -1566,13 +1899,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>3.4599999999999999E-2</v>
@@ -1586,13 +1919,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>8.72E-2</v>
@@ -1606,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>5.9299999999999999E-2</v>
@@ -1626,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>1.679389312977099E-5</v>
@@ -1648,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1656,28 +1989,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1851,6 +2184,122 @@
         <v>5</v>
       </c>
       <c r="I7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1861,13 +2310,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,19 +2347,31 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>9.5</v>
@@ -1933,19 +2394,31 @@
       <c r="K2">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>12.66635</v>
+      </c>
+      <c r="M2">
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="N2">
+        <v>8.1063499999999991</v>
+      </c>
+      <c r="O2">
+        <v>4.0536500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1968,19 +2441,31 @@
       <c r="K3">
         <v>69.206123576602636</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>320.39872026204932</v>
+      </c>
+      <c r="M3">
+        <v>192.23923215722951</v>
+      </c>
+      <c r="N3">
+        <v>164.0441447741693</v>
+      </c>
+      <c r="O3">
+        <v>82.022072387084648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>1050</v>
@@ -2003,19 +2488,31 @@
       <c r="K4">
         <v>12.61569961031819</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>58.40601671443607</v>
+      </c>
+      <c r="M4">
+        <v>35.043610028661632</v>
+      </c>
+      <c r="N4">
+        <v>29.903880557791279</v>
+      </c>
+      <c r="O4">
+        <v>14.951940278895639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>6500</v>
@@ -2038,19 +2535,31 @@
       <c r="K5">
         <v>171.30996091430541</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>793.10167089956212</v>
+      </c>
+      <c r="M5">
+        <v>475.86100253973711</v>
+      </c>
+      <c r="N5">
+        <v>406.06805550057578</v>
+      </c>
+      <c r="O5">
+        <v>203.03402775028789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>65</v>
@@ -2073,19 +2582,31 @@
       <c r="K6">
         <v>2.4785865</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>11.474937499999999</v>
+      </c>
+      <c r="M6">
+        <v>6.8849625000000003</v>
+      </c>
+      <c r="N6">
+        <v>5.8751680000000022</v>
+      </c>
+      <c r="O6">
+        <v>2.9375840000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -2108,19 +2629,31 @@
       <c r="K7">
         <v>0.76463999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>3.54</v>
+      </c>
+      <c r="M7">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.8124800000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.90624000000000016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -2143,19 +2676,31 @@
       <c r="K8">
         <v>2.0249999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>5.625</v>
+      </c>
+      <c r="M8">
+        <v>3.375</v>
+      </c>
+      <c r="N8">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="O8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -2178,19 +2723,31 @@
       <c r="K9">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.2</v>
+      </c>
+      <c r="N9">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="O9">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -2213,19 +2770,31 @@
       <c r="K10">
         <v>7.2413099999999986</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>12.068910000000001</v>
+      </c>
+      <c r="M10">
+        <v>8.6206499999999995</v>
+      </c>
+      <c r="N10">
+        <v>9.6551099999999987</v>
+      </c>
+      <c r="O10">
+        <v>6.2068499999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -2248,19 +2817,31 @@
       <c r="K11">
         <v>1.2600000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="M11">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="N11">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="O11">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>600</v>
@@ -2283,19 +2864,31 @@
       <c r="K12">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>4.32</v>
+      </c>
+      <c r="N12">
+        <v>5.76</v>
+      </c>
+      <c r="O12">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -2318,19 +2911,31 @@
       <c r="K13">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>6.3</v>
+      </c>
+      <c r="M13">
+        <v>4.5</v>
+      </c>
+      <c r="N13">
+        <v>5.0249999999999986</v>
+      </c>
+      <c r="O13">
+        <v>3.2250000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>1100</v>
@@ -2353,19 +2958,31 @@
       <c r="K14">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>8.14</v>
+      </c>
+      <c r="M14">
+        <v>4.84</v>
+      </c>
+      <c r="N14">
+        <v>4.18</v>
+      </c>
+      <c r="O14">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>480</v>
@@ -2388,19 +3005,31 @@
       <c r="K15">
         <v>37.103999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>171.744</v>
+      </c>
+      <c r="M15">
+        <v>103.008</v>
+      </c>
+      <c r="N15">
+        <v>87.936000000000007</v>
+      </c>
+      <c r="O15">
+        <v>43.968000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>620</v>
@@ -2423,19 +3052,31 @@
       <c r="K16">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>14.384</v>
+      </c>
+      <c r="M16">
+        <v>8.68</v>
+      </c>
+      <c r="N16">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="O16">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>650</v>
@@ -2458,19 +3099,31 @@
       <c r="K17">
         <v>0.58499999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="M17">
+        <v>1.69</v>
+      </c>
+      <c r="N17">
+        <v>1.43</v>
+      </c>
+      <c r="O17">
+        <v>0.71500000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>470</v>
@@ -2493,19 +3146,31 @@
       <c r="K18">
         <v>1.1279999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="M18">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="N18">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="O18">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>650</v>
@@ -2528,19 +3193,31 @@
       <c r="K19">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="M19">
+        <v>2.86</v>
+      </c>
+      <c r="N19">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="O19">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>620</v>
@@ -2563,13 +3240,25 @@
       <c r="K20">
         <v>1.054</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>1.736</v>
+      </c>
+      <c r="M20">
+        <v>1.24</v>
+      </c>
+      <c r="N20">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F21">
         <v>1223.789877679601</v>
@@ -2589,13 +3278,25 @@
       <c r="K21">
         <v>323.03558060122612</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>1441.643675376047</v>
+      </c>
+      <c r="M21">
+        <v>866.14289722562842</v>
+      </c>
+      <c r="N21">
+        <v>747.47180883253645</v>
+      </c>
+      <c r="O21">
+        <v>375.29844441626818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F22">
         <v>30.594746941990032</v>
@@ -2615,13 +3316,25 @@
       <c r="K22">
         <v>8.0758895150306529</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>36.04109188440119</v>
+      </c>
+      <c r="M22">
+        <v>21.653572430640711</v>
+      </c>
+      <c r="N22">
+        <v>18.686795220813408</v>
+      </c>
+      <c r="O22">
+        <v>9.382461110406707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F23">
         <v>1254.384624621591</v>
@@ -2641,13 +3354,25 @@
       <c r="K23">
         <v>331.11147011625678</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>1477.684767260449</v>
+      </c>
+      <c r="M23">
+        <v>887.7964696562691</v>
+      </c>
+      <c r="N23">
+        <v>766.1586040533499</v>
+      </c>
+      <c r="O23">
+        <v>384.68090552667502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F24">
         <v>125.43846246215909</v>
@@ -2667,13 +3392,25 @@
       <c r="K24">
         <v>33.111147011625683</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>147.7684767260449</v>
+      </c>
+      <c r="M24">
+        <v>88.77964696562691</v>
+      </c>
+      <c r="N24">
+        <v>76.615860405334999</v>
+      </c>
+      <c r="O24">
+        <v>38.468090552667498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F25">
         <v>1379.8230870837499</v>
@@ -2693,13 +3430,25 @@
       <c r="K25">
         <v>364.22261712788247</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>1625.4532439864929</v>
+      </c>
+      <c r="M25">
+        <v>976.57611662189606</v>
+      </c>
+      <c r="N25">
+        <v>842.77446445868486</v>
+      </c>
+      <c r="O25">
+        <v>423.14899607934251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F26">
         <v>103.48673153128129</v>
@@ -2719,13 +3468,25 @@
       <c r="K26">
         <v>27.316696284591181</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>121.908993298987</v>
+      </c>
+      <c r="M26">
+        <v>73.243208746642196</v>
+      </c>
+      <c r="N26">
+        <v>63.208084834401362</v>
+      </c>
+      <c r="O26">
+        <v>31.736174705950681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F27">
         <v>1483.3098186150321</v>
@@ -2744,6 +3505,18 @@
       </c>
       <c r="K27">
         <v>391.53931341247358</v>
+      </c>
+      <c r="L27">
+        <v>1747.36223728548</v>
+      </c>
+      <c r="M27">
+        <v>1049.8193253685381</v>
+      </c>
+      <c r="N27">
+        <v>905.98254929308621</v>
+      </c>
+      <c r="O27">
+        <v>454.88517078529321</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Analysis Template/analysis_dframe.xlsx
+++ b/Civilworks cost/Analysis Template/analysis_dframe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,12 @@
     <sheet name="analysis_list" sheetId="3" r:id="rId3"/>
     <sheet name="Analyzed_cost" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
   <si>
     <t>codeno</t>
   </si>
@@ -57,16 +54,19 @@
     <t>size1</t>
   </si>
   <si>
-    <t>Fuse Block1</t>
-  </si>
-  <si>
-    <t>Fuse Block2</t>
-  </si>
-  <si>
-    <t>Fuse Block3</t>
-  </si>
-  <si>
-    <t>Fuse Block4</t>
+    <t>40-190-05</t>
+  </si>
+  <si>
+    <t>40-190-15</t>
+  </si>
+  <si>
+    <t>40-190-35</t>
+  </si>
+  <si>
+    <t>40-190-40</t>
+  </si>
+  <si>
+    <t>40-190-50</t>
   </si>
   <si>
     <t>10-040</t>
@@ -289,25 +289,13 @@
   </si>
   <si>
     <t>Item Grand Total</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>cement</t>
-  </si>
-  <si>
-    <t>stone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,12 +310,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,16 +347,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,35 +367,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Resource_List"/>
-      <sheetName val="Allocation"/>
-      <sheetName val="Main"/>
-      <sheetName val="TYPE_A_281_M"/>
-      <sheetName val="TYPE_A_40M"/>
-      <sheetName val="FF_30M_at_KM_1"/>
-      <sheetName val="FF_30M_at_KM_1_Backup"/>
-      <sheetName val="FF_30M_at_KM_1_Backup (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,21 +656,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="20.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,19 +710,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>9.5</v>
@@ -802,10 +749,10 @@
         <v>0.48</v>
       </c>
       <c r="L2">
+        <v>0.8</v>
+      </c>
+      <c r="M2">
         <v>1.3332999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.8</v>
       </c>
       <c r="N2">
         <v>0.85329999999999995</v>
@@ -813,19 +760,22 @@
       <c r="O2">
         <v>0.42670000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -849,10 +799,10 @@
         <v>6.9206123576602643</v>
       </c>
       <c r="L3">
+        <v>19.223923215722959</v>
+      </c>
+      <c r="M3">
         <v>32.039872026204932</v>
-      </c>
-      <c r="M3">
-        <v>19.223923215722959</v>
       </c>
       <c r="N3">
         <v>16.404414477416928</v>
@@ -860,19 +810,22 @@
       <c r="O3">
         <v>8.2022072387084641</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>6.9206123576602643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>1050</v>
@@ -896,10 +849,10 @@
         <v>1.201495200982685E-2</v>
       </c>
       <c r="L4">
+        <v>3.3374866693963459E-2</v>
+      </c>
+      <c r="M4">
         <v>5.562477782327245E-2</v>
-      </c>
-      <c r="M4">
-        <v>3.3374866693963459E-2</v>
       </c>
       <c r="N4">
         <v>2.84798862455155E-2</v>
@@ -907,19 +860,22 @@
       <c r="O4">
         <v>1.423994312275775E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>1.201495200982685E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>6500</v>
@@ -943,10 +899,10 @@
         <v>2.635537860220083E-2</v>
       </c>
       <c r="L5">
+        <v>7.3209385006113403E-2</v>
+      </c>
+      <c r="M5">
         <v>0.1220156416768557</v>
-      </c>
-      <c r="M5">
-        <v>7.3209385006113403E-2</v>
       </c>
       <c r="N5">
         <v>6.2472008538550117E-2</v>
@@ -954,19 +910,22 @@
       <c r="O5">
         <v>3.1236004269275058E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>2.635537860220083E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>65</v>
@@ -990,10 +949,10 @@
         <v>3.8132100000000002E-2</v>
       </c>
       <c r="L6">
+        <v>0.1059225</v>
+      </c>
+      <c r="M6">
         <v>0.17653750000000001</v>
-      </c>
-      <c r="M6">
-        <v>0.1059225</v>
       </c>
       <c r="N6">
         <v>9.0387200000000029E-2</v>
@@ -1001,19 +960,22 @@
       <c r="O6">
         <v>4.5193600000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>3.8132100000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -1037,10 +999,10 @@
         <v>1.9116000000000001E-3</v>
       </c>
       <c r="L7">
+        <v>5.3099999999999996E-3</v>
+      </c>
+      <c r="M7">
         <v>8.8500000000000002E-3</v>
-      </c>
-      <c r="M7">
-        <v>5.3099999999999996E-3</v>
       </c>
       <c r="N7">
         <v>4.5312000000000009E-3</v>
@@ -1048,19 +1010,22 @@
       <c r="O7">
         <v>2.2656E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1.9116000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1084,10 +1049,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="L8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M8">
         <v>0.375</v>
-      </c>
-      <c r="M8">
-        <v>0.22500000000000001</v>
       </c>
       <c r="N8">
         <v>0.24</v>
@@ -1095,19 +1060,22 @@
       <c r="O8">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1131,10 +1099,10 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="L9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M9">
         <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="M9">
-        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N9">
         <v>2.0999999999999999E-3</v>
@@ -1142,19 +1110,22 @@
       <c r="O9">
         <v>1.1000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -1178,10 +1149,10 @@
         <v>8.0458999999999996</v>
       </c>
       <c r="L10">
+        <v>9.5785</v>
+      </c>
+      <c r="M10">
         <v>13.4099</v>
-      </c>
-      <c r="M10">
-        <v>9.5785</v>
       </c>
       <c r="N10">
         <v>10.7279</v>
@@ -1189,19 +1160,22 @@
       <c r="O10">
         <v>6.8964999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>8.0458999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -1225,10 +1199,10 @@
         <v>1.4E-3</v>
       </c>
       <c r="L11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M11">
         <v>2.3E-3</v>
-      </c>
-      <c r="M11">
-        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N11">
         <v>1.8E-3</v>
@@ -1236,19 +1210,22 @@
       <c r="O11">
         <v>1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>600</v>
@@ -1272,10 +1249,10 @@
         <v>0.36</v>
       </c>
       <c r="L12">
+        <v>0.48</v>
+      </c>
+      <c r="M12">
         <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.48</v>
       </c>
       <c r="N12">
         <v>0.64</v>
@@ -1283,19 +1260,22 @@
       <c r="O12">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -1319,10 +1299,10 @@
         <v>100</v>
       </c>
       <c r="L13">
+        <v>120</v>
+      </c>
+      <c r="M13">
         <v>168</v>
-      </c>
-      <c r="M13">
-        <v>120</v>
       </c>
       <c r="N13">
         <v>134</v>
@@ -1330,19 +1310,22 @@
       <c r="O13">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>1100</v>
@@ -1366,10 +1349,10 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="L14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M14">
         <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="M14">
-        <v>4.4000000000000003E-3</v>
       </c>
       <c r="N14">
         <v>3.8E-3</v>
@@ -1377,19 +1360,22 @@
       <c r="O14">
         <v>1.9E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>480</v>
@@ -1413,10 +1399,10 @@
         <v>7.7299999999999994E-2</v>
       </c>
       <c r="L15">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="M15">
         <v>0.35780000000000001</v>
-      </c>
-      <c r="M15">
-        <v>0.21460000000000001</v>
       </c>
       <c r="N15">
         <v>0.1832</v>
@@ -1424,19 +1410,22 @@
       <c r="O15">
         <v>9.1600000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>7.7299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>620</v>
@@ -1460,16 +1449,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M16">
         <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="M16">
-        <v>1.4E-2</v>
       </c>
       <c r="N16">
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="O16">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P16">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1477,13 +1469,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>650</v>
@@ -1507,16 +1499,19 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="L17">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="M17">
         <v>4.3E-3</v>
-      </c>
-      <c r="M17">
-        <v>2.5999999999999999E-3</v>
       </c>
       <c r="N17">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="O17">
         <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P17">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1524,13 +1519,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>470</v>
@@ -1554,16 +1549,19 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="L18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="M18">
         <v>1.09E-2</v>
-      </c>
-      <c r="M18">
-        <v>6.4999999999999997E-3</v>
       </c>
       <c r="N18">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="O18">
         <v>2.8E-3</v>
+      </c>
+      <c r="P18">
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1571,13 +1569,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>650</v>
@@ -1601,16 +1599,19 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="L19">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M19">
         <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="M19">
-        <v>4.4000000000000003E-3</v>
       </c>
       <c r="N19">
         <v>3.8E-3</v>
       </c>
       <c r="O19">
         <v>1.9E-3</v>
+      </c>
+      <c r="P19">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1618,13 +1619,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>620</v>
@@ -1648,10 +1649,10 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="L20">
+        <v>2E-3</v>
+      </c>
+      <c r="M20">
         <v>2.8E-3</v>
-      </c>
-      <c r="M20">
-        <v>2E-3</v>
       </c>
       <c r="N20">
         <v>2.3E-3</v>
@@ -1659,89 +1660,8 @@
       <c r="O20">
         <v>1.4E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="2">
-        <v>167</v>
-      </c>
-      <c r="M22" s="2">
-        <v>300</v>
-      </c>
-      <c r="N22" s="2">
-        <v>229</v>
-      </c>
-      <c r="O22" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="3">
-        <f>L22*L3/50</f>
-        <v>107.01317256752446</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" ref="M23:O23" si="0">M22*M3/50</f>
-        <v>115.34353929433775</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="0"/>
-        <v>75.132218306569527</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="0"/>
-        <v>26.247063163867086</v>
-      </c>
-      <c r="P23" s="3">
-        <f>SUM(L23:O23)</f>
-        <v>323.73599333229885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K24" t="s">
-        <v>89</v>
-      </c>
-      <c r="L24" s="3">
-        <f>L22*L4</f>
-        <v>9.289337896486499</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" ref="M24:O24" si="1">M22*M4</f>
-        <v>10.012460008189038</v>
-      </c>
-      <c r="N24" s="3">
-        <f t="shared" si="1"/>
-        <v>6.5218939502230491</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2783908996412401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="3">
-        <f>L5*L22</f>
-        <v>20.376612160034902</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" ref="M25:O25" si="2">M5*M22</f>
-        <v>21.962815501834022</v>
-      </c>
-      <c r="N25" s="3">
-        <f t="shared" si="2"/>
-        <v>14.306089955327977</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9977606830840093</v>
+      <c r="P20">
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1753,25 +1673,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1779,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>1.4123000000000001</v>
@@ -1799,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>7.0800000000000002E-2</v>
@@ -1819,13 +1739,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>3.2899999999999999E-2</v>
@@ -1839,13 +1759,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>5.9299999999999999E-2</v>
@@ -1859,13 +1779,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>2.8620000000000001</v>
@@ -1879,13 +1799,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>0.186</v>
@@ -1899,13 +1819,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>3.4599999999999999E-2</v>
@@ -1919,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>8.72E-2</v>
@@ -1939,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>5.9299999999999999E-2</v>
@@ -1959,13 +1879,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>1.679389312977099E-5</v>
@@ -1981,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1989,28 +1909,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2201,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2230,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2300,6 +2220,35 @@
         <v>5</v>
       </c>
       <c r="I11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -2310,13 +2259,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2359,19 +2308,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>9.5</v>
@@ -2395,10 +2347,10 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="L2">
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="M2">
         <v>12.66635</v>
-      </c>
-      <c r="M2">
-        <v>7.6000000000000014</v>
       </c>
       <c r="N2">
         <v>8.1063499999999991</v>
@@ -2406,19 +2358,22 @@
       <c r="O2">
         <v>4.0536500000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2442,10 +2397,10 @@
         <v>69.206123576602636</v>
       </c>
       <c r="L3">
+        <v>192.23923215722951</v>
+      </c>
+      <c r="M3">
         <v>320.39872026204932</v>
-      </c>
-      <c r="M3">
-        <v>192.23923215722951</v>
       </c>
       <c r="N3">
         <v>164.0441447741693</v>
@@ -2453,19 +2408,22 @@
       <c r="O3">
         <v>82.022072387084648</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>69.206123576602636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>1050</v>
@@ -2489,10 +2447,10 @@
         <v>12.61569961031819</v>
       </c>
       <c r="L4">
+        <v>35.043610028661632</v>
+      </c>
+      <c r="M4">
         <v>58.40601671443607</v>
-      </c>
-      <c r="M4">
-        <v>35.043610028661632</v>
       </c>
       <c r="N4">
         <v>29.903880557791279</v>
@@ -2500,19 +2458,22 @@
       <c r="O4">
         <v>14.951940278895639</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>12.61569961031819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>6500</v>
@@ -2536,10 +2497,10 @@
         <v>171.30996091430541</v>
       </c>
       <c r="L5">
+        <v>475.86100253973711</v>
+      </c>
+      <c r="M5">
         <v>793.10167089956212</v>
-      </c>
-      <c r="M5">
-        <v>475.86100253973711</v>
       </c>
       <c r="N5">
         <v>406.06805550057578</v>
@@ -2547,19 +2508,22 @@
       <c r="O5">
         <v>203.03402775028789</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>171.30996091430541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>65</v>
@@ -2583,10 +2547,10 @@
         <v>2.4785865</v>
       </c>
       <c r="L6">
+        <v>6.8849625000000003</v>
+      </c>
+      <c r="M6">
         <v>11.474937499999999</v>
-      </c>
-      <c r="M6">
-        <v>6.8849625000000003</v>
       </c>
       <c r="N6">
         <v>5.8751680000000022</v>
@@ -2594,19 +2558,22 @@
       <c r="O6">
         <v>2.9375840000000011</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>2.4785865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -2630,10 +2597,10 @@
         <v>0.76463999999999999</v>
       </c>
       <c r="L7">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="M7">
         <v>3.54</v>
-      </c>
-      <c r="M7">
-        <v>2.1240000000000001</v>
       </c>
       <c r="N7">
         <v>1.8124800000000001</v>
@@ -2641,19 +2608,22 @@
       <c r="O7">
         <v>0.90624000000000016</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>0.76463999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -2677,10 +2647,10 @@
         <v>2.0249999999999999</v>
       </c>
       <c r="L8">
+        <v>3.375</v>
+      </c>
+      <c r="M8">
         <v>5.625</v>
-      </c>
-      <c r="M8">
-        <v>3.375</v>
       </c>
       <c r="N8">
         <v>3.600000000000001</v>
@@ -2688,19 +2658,22 @@
       <c r="O8">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>2.0249999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -2724,10 +2697,10 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9">
         <v>0.32800000000000001</v>
-      </c>
-      <c r="M9">
-        <v>0.2</v>
       </c>
       <c r="N9">
         <v>0.16800000000000001</v>
@@ -2735,19 +2708,22 @@
       <c r="O9">
         <v>8.8000000000000009E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -2771,10 +2747,10 @@
         <v>7.2413099999999986</v>
       </c>
       <c r="L10">
+        <v>8.6206499999999995</v>
+      </c>
+      <c r="M10">
         <v>12.068910000000001</v>
-      </c>
-      <c r="M10">
-        <v>8.6206499999999995</v>
       </c>
       <c r="N10">
         <v>9.6551099999999987</v>
@@ -2782,19 +2758,22 @@
       <c r="O10">
         <v>6.2068499999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>7.2413099999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -2818,10 +2797,10 @@
         <v>1.2600000000000001E-3</v>
       </c>
       <c r="L11">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="M11">
         <v>2.0699999999999998E-3</v>
-      </c>
-      <c r="M11">
-        <v>1.4400000000000001E-3</v>
       </c>
       <c r="N11">
         <v>1.6199999999999999E-3</v>
@@ -2829,19 +2808,22 @@
       <c r="O11">
         <v>1.08E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>600</v>
@@ -2865,10 +2847,10 @@
         <v>3.24</v>
       </c>
       <c r="L12">
+        <v>4.32</v>
+      </c>
+      <c r="M12">
         <v>9</v>
-      </c>
-      <c r="M12">
-        <v>4.32</v>
       </c>
       <c r="N12">
         <v>5.76</v>
@@ -2876,19 +2858,22 @@
       <c r="O12">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>2.5</v>
@@ -2912,10 +2897,10 @@
         <v>3.75</v>
       </c>
       <c r="L13">
+        <v>4.5</v>
+      </c>
+      <c r="M13">
         <v>6.3</v>
-      </c>
-      <c r="M13">
-        <v>4.5</v>
       </c>
       <c r="N13">
         <v>5.0249999999999986</v>
@@ -2923,19 +2908,22 @@
       <c r="O13">
         <v>3.2250000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>1100</v>
@@ -2959,10 +2947,10 @@
         <v>1.76</v>
       </c>
       <c r="L14">
+        <v>4.84</v>
+      </c>
+      <c r="M14">
         <v>8.14</v>
-      </c>
-      <c r="M14">
-        <v>4.84</v>
       </c>
       <c r="N14">
         <v>4.18</v>
@@ -2970,19 +2958,22 @@
       <c r="O14">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>480</v>
@@ -3006,10 +2997,10 @@
         <v>37.103999999999999</v>
       </c>
       <c r="L15">
+        <v>103.008</v>
+      </c>
+      <c r="M15">
         <v>171.744</v>
-      </c>
-      <c r="M15">
-        <v>103.008</v>
       </c>
       <c r="N15">
         <v>87.936000000000007</v>
@@ -3017,19 +3008,22 @@
       <c r="O15">
         <v>43.968000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>37.103999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>620</v>
@@ -3053,10 +3047,10 @@
         <v>3.1</v>
       </c>
       <c r="L16">
+        <v>8.68</v>
+      </c>
+      <c r="M16">
         <v>14.384</v>
-      </c>
-      <c r="M16">
-        <v>8.68</v>
       </c>
       <c r="N16">
         <v>7.3780000000000001</v>
@@ -3064,19 +3058,22 @@
       <c r="O16">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>650</v>
@@ -3100,10 +3097,10 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="L17">
+        <v>1.69</v>
+      </c>
+      <c r="M17">
         <v>2.7949999999999999</v>
-      </c>
-      <c r="M17">
-        <v>1.69</v>
       </c>
       <c r="N17">
         <v>1.43</v>
@@ -3111,19 +3108,22 @@
       <c r="O17">
         <v>0.71500000000000008</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>470</v>
@@ -3147,10 +3147,10 @@
         <v>1.1279999999999999</v>
       </c>
       <c r="L18">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="M18">
         <v>5.1230000000000002</v>
-      </c>
-      <c r="M18">
-        <v>3.0550000000000002</v>
       </c>
       <c r="N18">
         <v>2.6320000000000001</v>
@@ -3158,19 +3158,22 @@
       <c r="O18">
         <v>1.3160000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>650</v>
@@ -3194,10 +3197,10 @@
         <v>1.04</v>
       </c>
       <c r="L19">
+        <v>2.86</v>
+      </c>
+      <c r="M19">
         <v>4.8099999999999996</v>
-      </c>
-      <c r="M19">
-        <v>2.86</v>
       </c>
       <c r="N19">
         <v>2.4700000000000002</v>
@@ -3205,19 +3208,22 @@
       <c r="O19">
         <v>1.2350000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>620</v>
@@ -3241,10 +3247,10 @@
         <v>1.054</v>
       </c>
       <c r="L20">
+        <v>1.24</v>
+      </c>
+      <c r="M20">
         <v>1.736</v>
-      </c>
-      <c r="M20">
-        <v>1.24</v>
       </c>
       <c r="N20">
         <v>1.4259999999999999</v>
@@ -3252,13 +3258,16 @@
       <c r="O20">
         <v>0.86799999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <v>1223.789877679601</v>
@@ -3279,10 +3288,10 @@
         <v>323.03558060122612</v>
       </c>
       <c r="L21">
+        <v>866.14289722562842</v>
+      </c>
+      <c r="M21">
         <v>1441.643675376047</v>
-      </c>
-      <c r="M21">
-        <v>866.14289722562842</v>
       </c>
       <c r="N21">
         <v>747.47180883253645</v>
@@ -3290,13 +3299,16 @@
       <c r="O21">
         <v>375.29844441626818</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>323.03558060122612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22">
         <v>30.594746941990032</v>
@@ -3317,10 +3329,10 @@
         <v>8.0758895150306529</v>
       </c>
       <c r="L22">
+        <v>21.653572430640711</v>
+      </c>
+      <c r="M22">
         <v>36.04109188440119</v>
-      </c>
-      <c r="M22">
-        <v>21.653572430640711</v>
       </c>
       <c r="N22">
         <v>18.686795220813408</v>
@@ -3328,13 +3340,16 @@
       <c r="O22">
         <v>9.382461110406707</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>8.0758895150306529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>1254.384624621591</v>
@@ -3355,10 +3370,10 @@
         <v>331.11147011625678</v>
       </c>
       <c r="L23">
+        <v>887.7964696562691</v>
+      </c>
+      <c r="M23">
         <v>1477.684767260449</v>
-      </c>
-      <c r="M23">
-        <v>887.7964696562691</v>
       </c>
       <c r="N23">
         <v>766.1586040533499</v>
@@ -3366,13 +3381,16 @@
       <c r="O23">
         <v>384.68090552667502</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>331.11147011625678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24">
         <v>125.43846246215909</v>
@@ -3393,10 +3411,10 @@
         <v>33.111147011625683</v>
       </c>
       <c r="L24">
+        <v>88.77964696562691</v>
+      </c>
+      <c r="M24">
         <v>147.7684767260449</v>
-      </c>
-      <c r="M24">
-        <v>88.77964696562691</v>
       </c>
       <c r="N24">
         <v>76.615860405334999</v>
@@ -3404,13 +3422,16 @@
       <c r="O24">
         <v>38.468090552667498</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>33.111147011625683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25">
         <v>1379.8230870837499</v>
@@ -3431,10 +3452,10 @@
         <v>364.22261712788247</v>
       </c>
       <c r="L25">
+        <v>976.57611662189606</v>
+      </c>
+      <c r="M25">
         <v>1625.4532439864929</v>
-      </c>
-      <c r="M25">
-        <v>976.57611662189606</v>
       </c>
       <c r="N25">
         <v>842.77446445868486</v>
@@ -3442,13 +3463,16 @@
       <c r="O25">
         <v>423.14899607934251</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>364.22261712788247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26">
         <v>103.48673153128129</v>
@@ -3469,10 +3493,10 @@
         <v>27.316696284591181</v>
       </c>
       <c r="L26">
+        <v>73.243208746642196</v>
+      </c>
+      <c r="M26">
         <v>121.908993298987</v>
-      </c>
-      <c r="M26">
-        <v>73.243208746642196</v>
       </c>
       <c r="N26">
         <v>63.208084834401362</v>
@@ -3480,13 +3504,16 @@
       <c r="O26">
         <v>31.736174705950681</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>27.316696284591181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27">
         <v>1483.3098186150321</v>
@@ -3507,16 +3534,19 @@
         <v>391.53931341247358</v>
       </c>
       <c r="L27">
+        <v>1049.8193253685381</v>
+      </c>
+      <c r="M27">
         <v>1747.36223728548</v>
-      </c>
-      <c r="M27">
-        <v>1049.8193253685381</v>
       </c>
       <c r="N27">
         <v>905.98254929308621</v>
       </c>
       <c r="O27">
         <v>454.88517078529321</v>
+      </c>
+      <c r="P27">
+        <v>391.53931341247358</v>
       </c>
     </row>
   </sheetData>
